--- a/millenium!qix/GIRO PADRÃO ADRIANO-Ajustado.xlsx
+++ b/millenium!qix/GIRO PADRÃO ADRIANO-Ajustado.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,9 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Modelo</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
 </sst>
 </file>
@@ -37,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -47,6 +56,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -63,7 +78,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -71,6 +86,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R31" sqref="A31:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,8 +459,17 @@
       <c r="O1" s="2">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>102701</v>
       </c>
@@ -469,7 +498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>102711</v>
       </c>
@@ -498,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>105203</v>
       </c>
@@ -536,7 +565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>105507</v>
       </c>
@@ -577,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>105514</v>
       </c>
@@ -618,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>105702</v>
       </c>
@@ -665,7 +694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>105704</v>
       </c>
@@ -712,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>105781</v>
       </c>
@@ -759,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>105784</v>
       </c>
@@ -806,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>106007</v>
       </c>
@@ -847,7 +876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>106008</v>
       </c>
@@ -888,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>106017</v>
       </c>
@@ -929,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>106052</v>
       </c>
@@ -970,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>106054</v>
       </c>
@@ -1011,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>106055</v>
       </c>
@@ -1052,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>106057</v>
       </c>
@@ -1093,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>106206</v>
       </c>
@@ -1134,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>106611</v>
       </c>
@@ -1181,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>106904</v>
       </c>
@@ -1222,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>108701</v>
       </c>
@@ -1251,7 +1280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>108703</v>
       </c>
@@ -1280,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>400601</v>
       </c>
@@ -1312,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>400704</v>
       </c>
@@ -1347,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>400852</v>
       </c>
@@ -1388,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>401001</v>
       </c>
@@ -1429,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>401006</v>
       </c>
@@ -1470,7 +1499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5511</v>
       </c>
@@ -1508,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5512</v>
       </c>
@@ -1546,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>703801</v>
       </c>
@@ -1570,6 +1599,34 @@
       </c>
       <c r="H30" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>61301170</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5">
+        <v>15</v>
+      </c>
+      <c r="Q31" s="5">
+        <v>36</v>
+      </c>
+      <c r="R31" s="5">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
